--- a/MEGA/Server/Resources/Struttura dati config.xlsx
+++ b/MEGA/Server/Resources/Struttura dati config.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Importanti\Mio software\Arduino\ArduinoAcquario\MEGA\Server\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F905B20-37F3-4AC2-AD22-77C5A6F8211F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDDD3467-732A-4BA4-9B25-5C7C2D3F416F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{395243F2-0A81-4398-82AE-91ABCE2D9130}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
-    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="36">
   <si>
     <t>=</t>
   </si>
@@ -106,34 +106,7 @@
     <t>busy</t>
   </si>
   <si>
-    <t>JSON_OBECT_SIZE(4)</t>
-  </si>
-  <si>
-    <t>JSON_OBECT_SIZE(3)*</t>
-  </si>
-  <si>
-    <t>NMAXCONTROLLERS</t>
-  </si>
-  <si>
-    <t>JSON_OBECT_SIZE(5)*</t>
-  </si>
-  <si>
-    <t>JSON_OBECT_SIZE(7)*</t>
-  </si>
-  <si>
     <t>pin</t>
-  </si>
-  <si>
-    <t>t-delta</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>t+delta</t>
-  </si>
-  <si>
-    <t>acceso risc</t>
   </si>
   <si>
     <t>termometri</t>
@@ -210,11 +183,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F277D2-33AE-4A88-A56F-C125D764BD4C}">
   <dimension ref="B4:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -546,26 +516,26 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="K4" s="2" t="s">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="K4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="O4" s="2" t="s">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="O4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
@@ -578,7 +548,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
@@ -683,7 +653,7 @@
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -753,38 +723,13 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
+    <row r="17" spans="7:11" x14ac:dyDescent="0.35">
       <c r="G17" t="s">
         <v>11</v>
       </c>
@@ -792,21 +737,21 @@
         <v>5</v>
       </c>
       <c r="I17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="7:11" x14ac:dyDescent="0.35">
       <c r="G18" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H18" t="s">
         <v>5</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="7:11" x14ac:dyDescent="0.35">
       <c r="G19" t="s">
         <v>16</v>
       </c>
@@ -814,73 +759,73 @@
         <v>9</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="7:11" x14ac:dyDescent="0.35">
       <c r="G20" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H20" t="s">
         <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="7:11" x14ac:dyDescent="0.35">
       <c r="G21" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H21" t="s">
         <v>9</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="7:11" x14ac:dyDescent="0.35">
       <c r="G22" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H22" t="s">
         <v>5</v>
       </c>
       <c r="J22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="7:11" x14ac:dyDescent="0.35">
       <c r="G23" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H23" t="s">
         <v>5</v>
       </c>
       <c r="J23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="7:11" x14ac:dyDescent="0.35">
       <c r="G24" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H24" t="s">
         <v>5</v>
       </c>
       <c r="K24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="7:11" x14ac:dyDescent="0.35">
       <c r="G25" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H25" t="s">
         <v>5</v>
       </c>
       <c r="K25" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -894,35 +839,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CADED8-1308-4999-8AC4-060D7F7E7828}">
-  <dimension ref="C4:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>